--- a/data/trans_dic/P25D_R2_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25D_R2_2023-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.07048769867761756</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08188528134879187</v>
+        <v>0.08188528134879185</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05124396957131282</v>
+        <v>0.05053589087819815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04189362120255871</v>
+        <v>0.04110077543505016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05489200780865564</v>
+        <v>0.05198103056268434</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1542631322055181</v>
+        <v>0.1544897738149756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1154892310744645</v>
+        <v>0.1147659095628886</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1207626951426875</v>
+        <v>0.1184229274655303</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07732299515722513</v>
+        <v>0.07732299515722514</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.03426562546101276</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04872813111066305</v>
+        <v>0.04849710570957398</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01903772555907645</v>
+        <v>0.01918186041486161</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03841391317781312</v>
+        <v>0.0396974505325128</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1176868627803231</v>
+        <v>0.1183673305309656</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05493015715511049</v>
+        <v>0.05628428740539278</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0757775280489804</v>
+        <v>0.07726675263736964</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.0310856959890487</v>
+        <v>0.03108569598904869</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01440573541587493</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01902562197079357</v>
+        <v>0.01852771200772678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.007536302890735325</v>
+        <v>0.008540280414717005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01503636294243224</v>
+        <v>0.01485619564501905</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04886065317785705</v>
+        <v>0.04952793364221784</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02603976800413086</v>
+        <v>0.02490054437396271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0329250147087673</v>
+        <v>0.03306407762078897</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.02115127113427858</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01653073681679431</v>
+        <v>0.01653073681679432</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.01877556748001334</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01145186970752835</v>
+        <v>0.01155688997858226</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01068599187754314</v>
+        <v>0.01016405840931125</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01288305325551363</v>
+        <v>0.01323304419015633</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03417999049088875</v>
+        <v>0.03670768549630443</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02610922927292383</v>
+        <v>0.02545132758212605</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02632316713595237</v>
+        <v>0.0270359339751995</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.01557818263272362</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.007138698828182</v>
+        <v>0.007138698828182003</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.01136029861182209</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008196408420172272</v>
+        <v>0.00786805688231124</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003008320492246213</v>
+        <v>0.002936448199417341</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006787329711620114</v>
+        <v>0.007178515660465169</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02970980717029407</v>
+        <v>0.02798052903388183</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01439103507801927</v>
+        <v>0.01392634617132381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01764015348767598</v>
+        <v>0.0180719043897009</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.007799264624145756</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.006381060395730851</v>
+        <v>0.006381060395730853</v>
       </c>
     </row>
     <row r="20">
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.002831051096040121</v>
+        <v>0.002944247938039617</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002807486859687488</v>
+        <v>0.00272523395690468</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01723726085963996</v>
+        <v>0.01635297471639754</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01706639859505862</v>
+        <v>0.01590923708902747</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01208934865452713</v>
+        <v>0.0119699058781696</v>
       </c>
     </row>
     <row r="22">
@@ -927,10 +927,10 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.005455514868912107</v>
+        <v>0.005045965471033013</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.002050875884604677</v>
+        <v>0.002539972720634935</v>
       </c>
     </row>
     <row r="25">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20897</v>
+        <v>20608</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15187</v>
+        <v>14900</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42284</v>
+        <v>40041</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62907</v>
+        <v>63000</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41866</v>
+        <v>41604</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>93024</v>
+        <v>91222</v>
       </c>
     </row>
     <row r="8">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23176</v>
+        <v>23066</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9539</v>
+        <v>9612</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37519</v>
+        <v>38772</v>
       </c>
     </row>
     <row r="11">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55973</v>
+        <v>56297</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27525</v>
+        <v>28203</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74011</v>
+        <v>75466</v>
       </c>
     </row>
     <row r="12">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11789</v>
+        <v>11481</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4671</v>
+        <v>5293</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>18637</v>
+        <v>18413</v>
       </c>
     </row>
     <row r="15">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30277</v>
+        <v>30690</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16139</v>
+        <v>15433</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40809</v>
+        <v>40981</v>
       </c>
     </row>
     <row r="16">
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7959</v>
+        <v>8032</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7859</v>
+        <v>7475</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>18428</v>
+        <v>18929</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23754</v>
+        <v>25510</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19203</v>
+        <v>18719</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37654</v>
+        <v>38673</v>
       </c>
     </row>
     <row r="20">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4978</v>
+        <v>4778</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1825</v>
+        <v>1782</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8241</v>
+        <v>8716</v>
       </c>
     </row>
     <row r="23">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18044</v>
+        <v>16993</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8732</v>
+        <v>8450</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21417</v>
+        <v>21942</v>
       </c>
     </row>
     <row r="24">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1241</v>
+        <v>1291</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2372</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="27">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7005</v>
+        <v>6646</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>7483</v>
+        <v>6976</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10214</v>
+        <v>10113</v>
       </c>
     </row>
     <row r="28">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>2531</v>
+        <v>2341</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1588</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
     </row>
     <row r="36">
